--- a/PORTO_ALEGRE.xlsx
+++ b/PORTO_ALEGRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmangoni\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E81FE9E-B12F-4B1F-B110-5761C7B4E1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA707A56-EC24-4ACD-AFCA-919B8F830FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="775" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">DESFAZIMENTOS!$A$1:$M$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">DESFAZIMENTOS!$A$1:$M$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2378" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2371" uniqueCount="592">
   <si>
     <t>Número</t>
   </si>
@@ -1478,22 +1478,10 @@
     <t>Porto Alegre</t>
   </si>
   <si>
-    <t>8.2024.1026/000317-7</t>
-  </si>
-  <si>
-    <t>Aguarda Autorização</t>
-  </si>
-  <si>
     <t>DIRETA</t>
   </si>
   <si>
-    <t>FUNDACAO MARIA TAVARES</t>
-  </si>
-  <si>
     <t>MOBILIÁRIO</t>
-  </si>
-  <si>
-    <t>DG/PRESIDÊNCIA</t>
   </si>
   <si>
     <t>8.2023.2769/000020-1</t>
@@ -62954,10 +62942,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63022,36 +63010,36 @@
         <v>464</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>469</v>
-      </c>
       <c r="G2" s="3">
-        <v>45366</v>
+        <v>45126</v>
       </c>
       <c r="H2" s="3">
-        <v>45770</v>
+        <v>45343</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>470</v>
+        <v>255</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="3">
-        <v>45590</v>
+        <v>45812</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -63059,36 +63047,36 @@
         <v>464</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>473</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G3" s="3">
-        <v>45126</v>
+        <v>45124</v>
       </c>
       <c r="H3" s="3">
-        <v>45343</v>
+        <v>45723</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2">
-        <v>76</v>
+        <v>631</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>255</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="3">
-        <v>45812</v>
+        <v>45726</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -63096,36 +63084,36 @@
         <v>464</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G4" s="3">
-        <v>45124</v>
+        <v>45079</v>
       </c>
       <c r="H4" s="3">
-        <v>45723</v>
+        <v>45708</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2">
-        <v>631</v>
+        <v>849</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>255</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="3">
-        <v>45726</v>
+        <v>45828</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -63133,36 +63121,40 @@
         <v>464</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G5" s="3">
-        <v>45079</v>
+        <v>45113</v>
       </c>
       <c r="H5" s="3">
-        <v>45708</v>
-      </c>
-      <c r="I5" s="2"/>
+        <v>45892</v>
+      </c>
+      <c r="I5" s="3">
+        <v>45527</v>
+      </c>
       <c r="J5" s="2">
-        <v>849</v>
+        <v>324</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="L5" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="L5" s="2">
+        <v>414</v>
+      </c>
       <c r="M5" s="3">
-        <v>45828</v>
+        <v>45527</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -63173,37 +63165,37 @@
         <v>476</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>467</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G6" s="3">
-        <v>45113</v>
+        <v>45026</v>
       </c>
       <c r="H6" s="3">
-        <v>45892</v>
+        <v>45705</v>
       </c>
       <c r="I6" s="3">
-        <v>45527</v>
+        <v>45705</v>
       </c>
       <c r="J6" s="2">
-        <v>324</v>
+        <v>81</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="L6" s="2">
-        <v>414</v>
+        <v>679</v>
       </c>
       <c r="M6" s="3">
-        <v>45527</v>
+        <v>45394</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -63211,22 +63203,22 @@
         <v>464</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>481</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G7" s="3">
-        <v>45026</v>
+        <v>45131</v>
       </c>
       <c r="H7" s="3">
         <v>45705</v>
@@ -63238,60 +63230,19 @@
         <v>81</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="L7" s="2">
-        <v>679</v>
+        <v>574</v>
       </c>
       <c r="M7" s="3">
-        <v>45394</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="G8" s="3">
-        <v>45131</v>
-      </c>
-      <c r="H8" s="3">
-        <v>45705</v>
-      </c>
-      <c r="I8" s="3">
-        <v>45705</v>
-      </c>
-      <c r="J8" s="2">
-        <v>81</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="L8" s="2">
-        <v>574</v>
-      </c>
-      <c r="M8" s="3">
         <v>45705</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M8" xr:uid="{00000000-0001-0000-0400-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M8">
-      <sortCondition ref="C1:C8"/>
+  <autoFilter ref="A1:M7" xr:uid="{00000000-0001-0000-0400-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M7">
+      <sortCondition ref="C1:C7"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -63334,21 +63285,21 @@
         <v>260</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B2" s="2">
         <v>349258</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D2" s="2">
         <v>5357</v>
@@ -63360,18 +63311,18 @@
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B3" s="2">
         <v>349275</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D3" s="2">
         <v>5357</v>
@@ -63383,18 +63334,18 @@
         <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B4" s="2">
         <v>349281</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D4" s="2">
         <v>5357</v>
@@ -63406,18 +63357,18 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B5" s="2">
         <v>47866</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D5" s="2">
         <v>478</v>
@@ -63429,18 +63380,18 @@
         <v>70</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B6" s="2">
         <v>62776</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D6" s="2">
         <v>130.9</v>
@@ -63452,18 +63403,18 @@
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B7" s="2">
         <v>371825</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D7" s="2">
         <v>391</v>
@@ -63475,18 +63426,18 @@
         <v>15</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B8" s="2">
         <v>386854</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D8" s="2">
         <v>680</v>
@@ -63498,18 +63449,18 @@
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B9" s="2">
         <v>508013</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D9" s="2">
         <v>2419.1999999999998</v>
@@ -63521,18 +63472,18 @@
         <v>50</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B10" s="2">
         <v>20494</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D10" s="2">
         <v>116.2</v>
@@ -63544,18 +63495,18 @@
         <v>15</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B11" s="2">
         <v>355539</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D11" s="2">
         <v>3103.74</v>
@@ -63567,18 +63518,18 @@
         <v>0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B12" s="2">
         <v>408201</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D12" s="2">
         <v>6900</v>
@@ -63590,18 +63541,18 @@
         <v>87.5</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B13" s="2">
         <v>411501</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D13" s="2">
         <v>990</v>
@@ -63613,18 +63564,18 @@
         <v>60</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B14" s="2">
         <v>411502</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D14" s="2">
         <v>990</v>
@@ -63636,18 +63587,18 @@
         <v>60</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B15" s="2">
         <v>297518</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D15" s="2">
         <v>562.07000000000005</v>
@@ -63659,18 +63610,18 @@
         <v>5.4</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B16" s="2">
         <v>421441</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D16" s="2">
         <v>367</v>
@@ -63682,12 +63633,12 @@
         <v>12</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B17" s="2">
         <v>536729</v>
@@ -63705,18 +63656,18 @@
         <v>21</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B18" s="2">
         <v>462506</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D18" s="2">
         <v>398.44</v>
@@ -63728,18 +63679,18 @@
         <v>50</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B19" s="2">
         <v>462507</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D19" s="2">
         <v>398.44</v>
@@ -63751,18 +63702,18 @@
         <v>50</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B20" s="2">
         <v>451009</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D20" s="2">
         <v>137.97</v>
@@ -63774,18 +63725,18 @@
         <v>50</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B21" s="2">
         <v>100654</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D21" s="2">
         <v>90</v>
@@ -63797,18 +63748,18 @@
         <v>12</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B22" s="2">
         <v>100748</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D22" s="2">
         <v>90</v>
@@ -63820,18 +63771,18 @@
         <v>12</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B23" s="2">
         <v>104588</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D23" s="2">
         <v>90</v>
@@ -63843,18 +63794,18 @@
         <v>12</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B24" s="2">
         <v>111873</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D24" s="2">
         <v>125</v>
@@ -63866,18 +63817,18 @@
         <v>12</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B25" s="2">
         <v>220932</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D25" s="2">
         <v>190</v>
@@ -63889,18 +63840,18 @@
         <v>15</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B26" s="2">
         <v>241453</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D26" s="2">
         <v>125</v>
@@ -63912,18 +63863,18 @@
         <v>15</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B27" s="2">
         <v>241461</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D27" s="2">
         <v>125</v>
@@ -63935,18 +63886,18 @@
         <v>15</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B28" s="2">
         <v>358399</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D28" s="2">
         <v>199.8</v>
@@ -63958,18 +63909,18 @@
         <v>8</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B29" s="2">
         <v>358412</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D29" s="2">
         <v>199.8</v>
@@ -63981,18 +63932,18 @@
         <v>8</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B30" s="2">
         <v>363712</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D30" s="2">
         <v>186</v>
@@ -64004,18 +63955,18 @@
         <v>12.5</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B31" s="2">
         <v>363713</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D31" s="2">
         <v>186</v>
@@ -64027,18 +63978,18 @@
         <v>12.5</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B32" s="2">
         <v>377538</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D32" s="2">
         <v>3120</v>
@@ -64050,18 +64001,18 @@
         <v>15</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B33" s="2">
         <v>511891</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D33" s="2">
         <v>3405</v>
@@ -64073,18 +64024,18 @@
         <v>2</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B34" s="2">
         <v>539939</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D34" s="2">
         <v>2529.1799999999998</v>
@@ -64096,18 +64047,18 @@
         <v>17.3</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B35" s="2">
         <v>314119</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D35" s="2">
         <v>221</v>
@@ -64119,18 +64070,18 @@
         <v>15</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B36" s="2">
         <v>432146</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D36" s="2">
         <v>365.25</v>
@@ -64142,18 +64093,18 @@
         <v>15</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B37" s="2">
         <v>62374</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D37" s="2">
         <v>119</v>
@@ -64165,18 +64116,18 @@
         <v>0</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B38" s="2">
         <v>385912</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D38" s="2">
         <v>680</v>
@@ -64188,18 +64139,18 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B39" s="2">
         <v>434042</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D39" s="2">
         <v>346.5</v>
@@ -64211,18 +64162,18 @@
         <v>25</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B40" s="2">
         <v>536040</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D40" s="2">
         <v>1500</v>
@@ -64234,18 +64185,18 @@
         <v>4.78</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B41" s="2">
         <v>536898</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D41" s="2">
         <v>795</v>
@@ -64257,18 +64208,18 @@
         <v>20</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B42" s="2">
         <v>462539</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D42" s="2">
         <v>218.3</v>
@@ -64280,18 +64231,18 @@
         <v>3.5</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B43" s="2">
         <v>217585</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D43" s="2">
         <v>205.76</v>
@@ -64303,18 +64254,18 @@
         <v>15</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B44" s="2">
         <v>389977</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D44" s="2">
         <v>389.92</v>
@@ -64326,18 +64277,18 @@
         <v>13.6</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B45" s="2">
         <v>491613</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D45" s="2">
         <v>600</v>
@@ -64349,18 +64300,18 @@
         <v>5.5</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B46" s="2">
         <v>497801</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D46" s="2">
         <v>659.4</v>
@@ -64372,18 +64323,18 @@
         <v>44.7</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B47" s="2">
         <v>497802</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D47" s="2">
         <v>659.4</v>
@@ -64395,18 +64346,18 @@
         <v>44.7</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B48" s="2">
         <v>497808</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D48" s="2">
         <v>642.6</v>
@@ -64418,18 +64369,18 @@
         <v>35.299999999999997</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B49" s="2">
         <v>497838</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D49" s="2">
         <v>193.41</v>
@@ -64441,18 +64392,18 @@
         <v>22.8</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B50" s="2">
         <v>507238</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D50" s="2">
         <v>1239.3599999999999</v>
@@ -64464,18 +64415,18 @@
         <v>24</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B51" s="2">
         <v>497682</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D51" s="2">
         <v>642.6</v>
@@ -64487,18 +64438,18 @@
         <v>35.299999999999997</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B52" s="2">
         <v>451003</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D52" s="2">
         <v>311.85000000000002</v>
@@ -64510,18 +64461,18 @@
         <v>50</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B53" s="2">
         <v>451010</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D53" s="2">
         <v>137.97</v>
@@ -64533,18 +64484,18 @@
         <v>50</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B54" s="2">
         <v>539929</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D54" s="2">
         <v>2529.1799999999998</v>
@@ -64556,18 +64507,18 @@
         <v>17.3</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B55" s="2">
         <v>18384</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D55" s="2">
         <v>36</v>
@@ -64579,18 +64530,18 @@
         <v>6</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B56" s="2">
         <v>83323</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D56" s="2">
         <v>105</v>
@@ -64602,18 +64553,18 @@
         <v>0</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B57" s="2">
         <v>456882</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D57" s="2">
         <v>7186.75</v>
@@ -64625,18 +64576,18 @@
         <v>45.6</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B58" s="2">
         <v>456893</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D58" s="2">
         <v>7186.75</v>
@@ -64648,18 +64599,18 @@
         <v>45.6</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B59" s="2">
         <v>456903</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D59" s="2">
         <v>7186.75</v>
@@ -64671,18 +64622,18 @@
         <v>45.6</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B60" s="2">
         <v>456913</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D60" s="2">
         <v>7186.75</v>
@@ -64694,18 +64645,18 @@
         <v>45.6</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B61" s="2">
         <v>456997</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D61" s="2">
         <v>7186.75</v>
@@ -64717,18 +64668,18 @@
         <v>45.6</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B62" s="2">
         <v>18257</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D62" s="2">
         <v>70</v>
@@ -64740,18 +64691,18 @@
         <v>36</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B63" s="2">
         <v>186277</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D63" s="2">
         <v>245.17</v>
@@ -64763,18 +64714,18 @@
         <v>5</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B64" s="2">
         <v>350099</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D64" s="2">
         <v>423.94</v>
@@ -64786,18 +64737,18 @@
         <v>30</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B65" s="2">
         <v>406483</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D65" s="2">
         <v>132.5</v>
@@ -64809,18 +64760,18 @@
         <v>4</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B66" s="2">
         <v>355370</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D66" s="2">
         <v>3103.74</v>
@@ -64832,18 +64783,18 @@
         <v>0</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B67" s="2">
         <v>355866</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D67" s="2">
         <v>3103.74</v>
@@ -64855,18 +64806,18 @@
         <v>0</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B68" s="2">
         <v>355293</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D68" s="2">
         <v>3103.74</v>
@@ -64878,18 +64829,18 @@
         <v>0</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B69" s="2">
         <v>355294</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D69" s="2">
         <v>3103.74</v>
@@ -64901,18 +64852,18 @@
         <v>0</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B70" s="2">
         <v>356082</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D70" s="2">
         <v>3103.74</v>
@@ -64924,18 +64875,18 @@
         <v>0</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B71" s="2">
         <v>490104</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D71" s="2">
         <v>2627</v>
@@ -64947,18 +64898,18 @@
         <v>3</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B72" s="2">
         <v>250747</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D72" s="2">
         <v>99</v>
@@ -64970,18 +64921,18 @@
         <v>25</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B73" s="2">
         <v>241603</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D73" s="2">
         <v>799</v>
@@ -64993,18 +64944,18 @@
         <v>1</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B74" s="2">
         <v>241604</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D74" s="2">
         <v>799</v>
@@ -65016,18 +64967,18 @@
         <v>1</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B75" s="2">
         <v>241610</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D75" s="2">
         <v>799</v>
@@ -65039,18 +64990,18 @@
         <v>1</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B76" s="2">
         <v>241611</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D76" s="2">
         <v>799</v>
@@ -65062,18 +65013,18 @@
         <v>1</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B77" s="2">
         <v>241613</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D77" s="2">
         <v>799</v>
@@ -65085,18 +65036,18 @@
         <v>1</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B78" s="2">
         <v>282942</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D78" s="2">
         <v>269.99</v>
@@ -65108,18 +65059,18 @@
         <v>5</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B79" s="2">
         <v>297489</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D79" s="2">
         <v>562.07000000000005</v>
@@ -65131,18 +65082,18 @@
         <v>5.4</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B80" s="2">
         <v>306708</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D80" s="2">
         <v>460</v>
@@ -65154,18 +65105,18 @@
         <v>1</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B81" s="2">
         <v>311856</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D81" s="2">
         <v>202</v>
@@ -65177,18 +65128,18 @@
         <v>8</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B82" s="2">
         <v>313808</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D82" s="2">
         <v>210</v>
@@ -65200,18 +65151,18 @@
         <v>12</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B83" s="2">
         <v>328804</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D83" s="2">
         <v>1247</v>
@@ -65223,18 +65174,18 @@
         <v>20</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B84" s="2">
         <v>329043</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D84" s="2">
         <v>562</v>
@@ -65246,18 +65197,18 @@
         <v>53</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B85" s="2">
         <v>329044</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D85" s="2">
         <v>562</v>
@@ -65269,18 +65220,18 @@
         <v>53</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B86" s="2">
         <v>329569</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D86" s="2">
         <v>475</v>
@@ -65292,18 +65243,18 @@
         <v>60</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B87" s="2">
         <v>329876</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D87" s="2">
         <v>637</v>
@@ -65315,18 +65266,18 @@
         <v>32</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B88" s="2">
         <v>261953</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D88" s="2">
         <v>202</v>
@@ -65338,18 +65289,18 @@
         <v>25</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B89" s="2">
         <v>261955</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D89" s="2">
         <v>202</v>
@@ -65361,18 +65312,18 @@
         <v>25</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B90" s="2">
         <v>333687</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D90" s="2">
         <v>578</v>
@@ -65384,18 +65335,18 @@
         <v>60</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B91" s="2">
         <v>333692</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D91" s="2">
         <v>475</v>
@@ -65407,18 +65358,18 @@
         <v>60</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B92" s="2">
         <v>333851</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D92" s="2">
         <v>2490</v>
@@ -65430,18 +65381,18 @@
         <v>120</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B93" s="2">
         <v>339676</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D93" s="2">
         <v>1100</v>
@@ -65453,18 +65404,18 @@
         <v>80</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B94" s="2">
         <v>345750</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D94" s="2">
         <v>453</v>
@@ -65476,18 +65427,18 @@
         <v>20</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B95" s="2">
         <v>350969</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D95" s="2">
         <v>339.9</v>
@@ -65499,18 +65450,18 @@
         <v>25</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B96" s="2">
         <v>352823</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D96" s="2">
         <v>442</v>
@@ -65522,18 +65473,18 @@
         <v>28</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B97" s="2">
         <v>382475</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D97" s="2">
         <v>680</v>
@@ -65545,18 +65496,18 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B98" s="2">
         <v>355312</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D98" s="2">
         <v>2240.5700000000002</v>
@@ -65568,18 +65519,18 @@
         <v>0</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B99" s="2">
         <v>355313</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D99" s="2">
         <v>2240.5700000000002</v>
@@ -65591,18 +65542,18 @@
         <v>0</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B100" s="2">
         <v>355316</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D100" s="2">
         <v>2240.5700000000002</v>
@@ -65614,18 +65565,18 @@
         <v>0</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B101" s="2">
         <v>355319</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D101" s="2">
         <v>2240.5700000000002</v>
@@ -65637,18 +65588,18 @@
         <v>0</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B102" s="2">
         <v>355320</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D102" s="2">
         <v>2240.5700000000002</v>
@@ -65660,18 +65611,18 @@
         <v>0</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B103" s="2">
         <v>355321</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D103" s="2">
         <v>2240.5700000000002</v>
@@ -65683,18 +65634,18 @@
         <v>0</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B104" s="2">
         <v>355324</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D104" s="2">
         <v>2240.5700000000002</v>
@@ -65706,18 +65657,18 @@
         <v>0</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B105" s="2">
         <v>355325</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D105" s="2">
         <v>2240.5700000000002</v>
@@ -65729,18 +65680,18 @@
         <v>0</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B106" s="2">
         <v>355326</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D106" s="2">
         <v>2240.5700000000002</v>
@@ -65752,18 +65703,18 @@
         <v>0</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B107" s="2">
         <v>355327</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D107" s="2">
         <v>2240.5700000000002</v>
@@ -65775,18 +65726,18 @@
         <v>0</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B108" s="2">
         <v>355328</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D108" s="2">
         <v>2240.5700000000002</v>
@@ -65798,18 +65749,18 @@
         <v>0</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B109" s="2">
         <v>355381</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D109" s="2">
         <v>3103.74</v>
@@ -65821,18 +65772,18 @@
         <v>1</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B110" s="2">
         <v>355868</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D110" s="2">
         <v>3103.74</v>
@@ -65844,18 +65795,18 @@
         <v>0</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B111" s="2">
         <v>355884</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D111" s="2">
         <v>3103.74</v>
@@ -65867,18 +65818,18 @@
         <v>0</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B112" s="2">
         <v>355421</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D112" s="2">
         <v>3103.74</v>
@@ -65890,18 +65841,18 @@
         <v>0</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B113" s="2">
         <v>355435</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D113" s="2">
         <v>3103.74</v>
@@ -65913,18 +65864,18 @@
         <v>0</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B114" s="2">
         <v>355525</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D114" s="2">
         <v>6498.11</v>
@@ -65936,18 +65887,18 @@
         <v>0</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B115" s="2">
         <v>355527</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D115" s="2">
         <v>6498.11</v>
@@ -65959,18 +65910,18 @@
         <v>0</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B116" s="2">
         <v>355341</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D116" s="2">
         <v>6769.23</v>
@@ -65982,18 +65933,18 @@
         <v>0</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B117" s="2">
         <v>355342</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D117" s="2">
         <v>6769.23</v>
@@ -66005,18 +65956,18 @@
         <v>0</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B118" s="2">
         <v>355331</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D118" s="2">
         <v>17153.150000000001</v>
@@ -66028,18 +65979,18 @@
         <v>0</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B119" s="2">
         <v>355332</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D119" s="2">
         <v>17153.150000000001</v>
@@ -66051,18 +66002,18 @@
         <v>0</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B120" s="2">
         <v>355737</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D120" s="2">
         <v>1242.3499999999999</v>
@@ -66074,12 +66025,12 @@
         <v>0</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B121" s="2">
         <v>366312</v>
@@ -66097,18 +66048,18 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B122" s="2">
         <v>355314</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D122" s="2">
         <v>2240.5700000000002</v>
@@ -66120,18 +66071,18 @@
         <v>0</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B123" s="2">
         <v>355318</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D123" s="2">
         <v>2240.5700000000002</v>
@@ -66143,18 +66094,18 @@
         <v>0</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B124" s="2">
         <v>355322</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D124" s="2">
         <v>2240.5700000000002</v>
@@ -66166,18 +66117,18 @@
         <v>0</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B125" s="2">
         <v>355323</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D125" s="2">
         <v>2240.5700000000002</v>
@@ -66189,18 +66140,18 @@
         <v>0</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B126" s="2">
         <v>355333</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D126" s="2">
         <v>17153.150000000001</v>
@@ -66212,18 +66163,18 @@
         <v>0</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B127" s="2">
         <v>371970</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D127" s="2">
         <v>1071.99</v>
@@ -66235,18 +66186,18 @@
         <v>0</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B128" s="2">
         <v>371965</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D128" s="2">
         <v>1071.99</v>
@@ -66258,18 +66209,18 @@
         <v>0</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B129" s="2">
         <v>357115</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D129" s="2">
         <v>2240.5700000000002</v>
@@ -66281,18 +66232,18 @@
         <v>0</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B130" s="2">
         <v>356131</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D130" s="2">
         <v>19941.580000000002</v>
@@ -66304,18 +66255,18 @@
         <v>1</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B131" s="2">
         <v>357273</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D131" s="2">
         <v>19941.580000000002</v>
@@ -66327,18 +66278,18 @@
         <v>1</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B132" s="2">
         <v>397353</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D132" s="2">
         <v>9440</v>
@@ -66350,12 +66301,12 @@
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B133" s="2">
         <v>402098</v>
@@ -66373,18 +66324,18 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B134" s="2">
         <v>424073</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D134" s="2">
         <v>107.1</v>
@@ -66396,18 +66347,18 @@
         <v>12</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B135" s="2">
         <v>431793</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D135" s="2">
         <v>12200</v>
@@ -66419,18 +66370,18 @@
         <v>19.600000000000001</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B136" s="2">
         <v>439244</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D136" s="2">
         <v>2500</v>
@@ -66442,18 +66393,18 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B137" s="2">
         <v>457133</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D137" s="2">
         <v>1949</v>
@@ -66465,18 +66416,18 @@
         <v>1</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B138" s="2">
         <v>457162</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D138" s="2">
         <v>1949</v>
@@ -66488,18 +66439,18 @@
         <v>1</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B139" s="2">
         <v>457164</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D139" s="2">
         <v>1949</v>
@@ -66511,18 +66462,18 @@
         <v>1</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B140" s="2">
         <v>457167</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D140" s="2">
         <v>1949</v>
@@ -66534,18 +66485,18 @@
         <v>1</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B141" s="2">
         <v>457184</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D141" s="2">
         <v>1949</v>
@@ -66557,18 +66508,18 @@
         <v>1</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B142" s="2">
         <v>539712</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D142" s="2">
         <v>2529.1799999999998</v>
@@ -66580,18 +66531,18 @@
         <v>17.3</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B143" s="2">
         <v>459490</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D143" s="2">
         <v>185.9</v>
@@ -66603,18 +66554,18 @@
         <v>3.5</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B144" s="2">
         <v>383881</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D144" s="2">
         <v>680</v>
@@ -66626,18 +66577,18 @@
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B145" s="2">
         <v>378291</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D145" s="2">
         <v>680</v>
@@ -66649,18 +66600,18 @@
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B146" s="2">
         <v>264145</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D146" s="2">
         <v>862.5</v>
@@ -66672,18 +66623,18 @@
         <v>5</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B147" s="2">
         <v>345704</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D147" s="2">
         <v>453</v>
@@ -66695,18 +66646,18 @@
         <v>20</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B148" s="2">
         <v>378191</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D148" s="2">
         <v>680</v>
@@ -66718,18 +66669,18 @@
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B149" s="2">
         <v>371977</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D149" s="2">
         <v>66.8</v>
@@ -66741,18 +66692,18 @@
         <v>8</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B150" s="2">
         <v>126188</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D150" s="2">
         <v>313</v>
@@ -66764,18 +66715,18 @@
         <v>30</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B151" s="2">
         <v>337121</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D151" s="2">
         <v>1210</v>
@@ -66787,18 +66738,18 @@
         <v>60</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B152" s="2">
         <v>337420</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D152" s="2">
         <v>637</v>
@@ -66810,18 +66761,18 @@
         <v>32</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B153" s="2">
         <v>334805</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D153" s="2">
         <v>345</v>
@@ -66833,18 +66784,18 @@
         <v>40</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B154" s="2">
         <v>336061</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D154" s="2">
         <v>345</v>
@@ -66856,18 +66807,18 @@
         <v>40</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B155" s="2">
         <v>339684</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D155" s="2">
         <v>1100</v>
@@ -66879,12 +66830,12 @@
         <v>80</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B156" s="2">
         <v>346528</v>
@@ -66902,18 +66853,18 @@
         <v>20</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B157" s="2">
         <v>218846</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D157" s="2">
         <v>1355</v>
@@ -66925,18 +66876,18 @@
         <v>15</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B158" s="2">
         <v>218854</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D158" s="2">
         <v>1355</v>
@@ -66948,18 +66899,18 @@
         <v>15</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B159" s="2">
         <v>218860</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D159" s="2">
         <v>1355</v>
@@ -66971,18 +66922,18 @@
         <v>15</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B160" s="2">
         <v>343191</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D160" s="2">
         <v>300</v>
@@ -66994,18 +66945,18 @@
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B161" s="2">
         <v>349108</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D161" s="2">
         <v>676.73</v>
@@ -67017,18 +66968,18 @@
         <v>5</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B162" s="2">
         <v>349140</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D162" s="2">
         <v>676.73</v>
@@ -67040,18 +66991,18 @@
         <v>5</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B163" s="2">
         <v>349142</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D163" s="2">
         <v>676.73</v>
@@ -67063,18 +67014,18 @@
         <v>5</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B164" s="2">
         <v>349149</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D164" s="2">
         <v>676.73</v>
@@ -67086,18 +67037,18 @@
         <v>5</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B165" s="2">
         <v>349182</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D165" s="2">
         <v>676.73</v>
@@ -67109,18 +67060,18 @@
         <v>5</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B166" s="2">
         <v>349183</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D166" s="2">
         <v>676.73</v>
@@ -67132,18 +67083,18 @@
         <v>5</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B167" s="2">
         <v>379283</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D167" s="2">
         <v>637</v>
@@ -67155,18 +67106,18 @@
         <v>32</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B168" s="2">
         <v>370482</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D168" s="2">
         <v>330</v>
@@ -67178,18 +67129,18 @@
         <v>25</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B169" s="2">
         <v>370524</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D169" s="2">
         <v>330</v>
@@ -67201,18 +67152,18 @@
         <v>25</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B170" s="2">
         <v>370592</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D170" s="2">
         <v>330</v>
@@ -67224,18 +67175,18 @@
         <v>25</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B171" s="2">
         <v>370621</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D171" s="2">
         <v>330</v>
@@ -67247,18 +67198,18 @@
         <v>25</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B172" s="2">
         <v>370635</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D172" s="2">
         <v>330</v>
@@ -67270,18 +67221,18 @@
         <v>25</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B173" s="2">
         <v>370636</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D173" s="2">
         <v>330</v>
@@ -67293,18 +67244,18 @@
         <v>25</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B174" s="2">
         <v>370726</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D174" s="2">
         <v>330</v>
@@ -67316,18 +67267,18 @@
         <v>25</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B175" s="2">
         <v>370742</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D175" s="2">
         <v>330</v>
@@ -67339,12 +67290,12 @@
         <v>25</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B176" s="2">
         <v>398717</v>
@@ -67362,18 +67313,18 @@
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B177" s="2">
         <v>414928</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D177" s="2">
         <v>19535.13</v>
@@ -67385,18 +67336,18 @@
         <v>0</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B178" s="2">
         <v>436411</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D178" s="2">
         <v>597.5</v>
@@ -67408,18 +67359,18 @@
         <v>22</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B179" s="2">
         <v>361031</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D179" s="2">
         <v>2227.37</v>
@@ -67431,18 +67382,18 @@
         <v>0</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B180" s="2">
         <v>505581</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D180" s="2">
         <v>459.48</v>
@@ -67454,18 +67405,18 @@
         <v>0</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B181" s="2">
         <v>331145</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D181" s="2">
         <v>713</v>
@@ -67483,7 +67434,7 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B182" s="2">
         <v>344588</v>
@@ -67501,12 +67452,12 @@
         <v>0</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B183" s="2">
         <v>345154</v>
@@ -67524,18 +67475,18 @@
         <v>0</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B184" s="2">
         <v>352747</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D184" s="2">
         <v>345</v>
@@ -67547,18 +67498,18 @@
         <v>0</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B185" s="2">
         <v>352968</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D185" s="2">
         <v>442</v>
@@ -67570,7 +67521,7 @@
         <v>0</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>
